--- a/regions/7/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
+++ b/regions/7/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="რაჭა-ლეჩხუმი და ქვემო სვანეთი" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -34,10 +34,6 @@
       </rPr>
       <t xml:space="preserve"> 2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან  -  სამუშაო ძალის გამოკვლევა. </t>
     </r>
-  </si>
-  <si>
-    <t>*2010-2019 წლების მონაცემები გადაანგარიშებულია შრომის საერთაშორისო  ორგანიზაციის (შსო) მიერ შრომის სტატისტიკოსთა  მე-20 საერთაშორისო კონფერენციაზე მიღებული სტანდარტების მიხედვით;
-2003-2009 წლების მონაცემები შეესაბამება შრომის სტატისტიკოსთა  მე-13 საერთაშორისო კონფერენციაზე მიღებულ სტანდარტებს.</t>
   </si>
   <si>
     <t>მოსახლეობა სამუშაო ძალის გარეთ</t>
@@ -120,6 +116,10 @@
       <t xml:space="preserve"> პროცენტი</t>
     </r>
   </si>
+  <si>
+    <t>*2010-2019 წლების მონაცემები გადაანგარიშებულია შრომის საერთაშორისო  ორგანიზაციის (შსო) მიერ შრომის სტატისტიკოსთა მე-19 და მე-20 საერთაშორისო კონფერენციებზე მიღებული სტანდარტების მიხედვით.
+2003-2009 წლების მონაცემები შეესაბამება შრომის სტატისტიკოსთა მე-13 საერთაშორისო კონფერენციაზე მიღებულ სტანდარტებს.</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -287,15 +300,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -324,9 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -389,19 +400,54 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal_Sheet2" xfId="4"/>
     <cellStyle name="Normal_Sheet3" xfId="3"/>
     <cellStyle name="Normal_Sheet5" xfId="5"/>
@@ -707,21 +753,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>12</v>
+      <c r="A1" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -762,56 +811,56 @@
       <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:23" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3"/>
+      <c r="A3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4"/>
+      <c r="A4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -819,753 +868,827 @@
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="Q5" s="6"/>
-      <c r="T5" s="7" t="s">
-        <v>10</v>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35">
         <v>2003</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>2004</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>2005</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>2006</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>2007</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>2008</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>2009</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>2010</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>2011</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>2012</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <v>2013</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>2014</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>2015</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="35">
         <v>2016</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <v>2017</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="35">
         <v>2018</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="35">
         <v>2019</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="35">
         <v>2020</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="35">
         <v>2021</v>
       </c>
+      <c r="U6" s="35">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="35">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="23">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="22">
         <v>544.95245566794483</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>540.16573516962706</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>534.35770841637304</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>528.67118876037284</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>525.9007487563598</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>519.36737145092457</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>514.56900000002065</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>505.91000000000412</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>494.81049923993737</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>486.04225972313026</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <v>477.60838318360607</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="23">
         <v>473.47752369672315</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="23">
         <v>463.79437706042626</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="23">
         <v>455.20590330246097</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="23">
         <v>458.40961339762549</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="23">
         <v>455.93687404225591</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>27.131074671545111</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="22">
         <v>25.86350397648582</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="22">
         <v>25.559240186133827</v>
       </c>
+      <c r="U7" s="38">
+        <v>25.75016098909617</v>
+      </c>
+      <c r="V7" s="52">
+        <v>25.222357077395703</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="24">
+        <v>379.38605017159762</v>
+      </c>
+      <c r="C8" s="24">
+        <v>360.23714692892361</v>
+      </c>
+      <c r="D8" s="24">
+        <v>355.72242491973623</v>
+      </c>
+      <c r="E8" s="24">
+        <v>344.39406997858816</v>
+      </c>
+      <c r="F8" s="24">
+        <v>332.51245818232326</v>
+      </c>
+      <c r="G8" s="24">
+        <v>339.58686718908325</v>
+      </c>
+      <c r="H8" s="24">
+        <v>337.91762486135326</v>
+      </c>
+      <c r="I8" s="24">
+        <v>224.77753457895398</v>
+      </c>
+      <c r="J8" s="23">
+        <v>223.04845951835733</v>
+      </c>
+      <c r="K8" s="25">
+        <v>220.87651052465151</v>
+      </c>
+      <c r="L8" s="25">
+        <v>218.07336100135626</v>
+      </c>
+      <c r="M8" s="25">
+        <v>221.57129595601077</v>
+      </c>
+      <c r="N8" s="25">
+        <v>216.84478739057818</v>
+      </c>
+      <c r="O8" s="25">
+        <v>217.66197240267752</v>
+      </c>
+      <c r="P8" s="25">
+        <v>216.8155243321832</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>216.70784419774625</v>
+      </c>
+      <c r="R8" s="24">
+        <v>10.195350802021027</v>
+      </c>
+      <c r="S8" s="24">
+        <v>10.751817533707882</v>
+      </c>
+      <c r="T8" s="24">
+        <v>11.537632014353777</v>
+      </c>
+      <c r="U8" s="38">
+        <v>12.557667023789703</v>
+      </c>
+      <c r="V8" s="52">
+        <v>12.19136062484495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>344.98042838455638</v>
+      </c>
+      <c r="C9" s="24">
+        <v>317.70038678525833</v>
+      </c>
+      <c r="D9" s="24">
+        <v>314.3826722484481</v>
+      </c>
+      <c r="E9" s="24">
+        <v>305.15555192039733</v>
+      </c>
+      <c r="F9" s="24">
+        <v>296.15028106401081</v>
+      </c>
+      <c r="G9" s="24">
+        <v>295.93633995286893</v>
+      </c>
+      <c r="H9" s="24">
+        <v>289.08152478027762</v>
+      </c>
+      <c r="I9" s="24">
+        <v>169.38294831621829</v>
+      </c>
+      <c r="J9" s="26">
+        <v>172.7572024125908</v>
+      </c>
+      <c r="K9" s="25">
+        <v>171.61262522324304</v>
+      </c>
+      <c r="L9" s="25">
+        <v>171.74287457527356</v>
+      </c>
+      <c r="M9" s="25">
+        <v>171.79153977007655</v>
+      </c>
+      <c r="N9" s="25">
+        <v>172.35056652217904</v>
+      </c>
+      <c r="O9" s="25">
+        <v>165.31183662117868</v>
+      </c>
+      <c r="P9" s="25">
+        <v>157.20450365722695</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>164.82449412744859</v>
+      </c>
+      <c r="R9" s="24">
+        <v>6.6896924000174298</v>
+      </c>
+      <c r="S9" s="24">
+        <v>7.3174830639588535</v>
+      </c>
+      <c r="T9" s="24">
+        <v>8.0736499337372045</v>
+      </c>
+      <c r="U9" s="38">
+        <v>9.4357106136270765</v>
+      </c>
+      <c r="V9" s="52">
+        <v>10.096763205337922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="24">
+        <v>90.627963509182592</v>
+      </c>
+      <c r="C10" s="24">
+        <v>87.21824932563726</v>
+      </c>
+      <c r="D10" s="24">
+        <v>92.9490462955808</v>
+      </c>
+      <c r="E10" s="24">
+        <v>84.086685548694732</v>
+      </c>
+      <c r="F10" s="24">
+        <v>80.204456730396402</v>
+      </c>
+      <c r="G10" s="24">
+        <v>79.824835020513248</v>
+      </c>
+      <c r="H10" s="24">
+        <v>86.318233041375748</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="24">
+        <v>6.2512011884494987</v>
+      </c>
+      <c r="T10" s="24">
+        <v>7.1023630512748657</v>
+      </c>
+      <c r="U10" s="38">
+        <v>7.9781151278722753</v>
+      </c>
+      <c r="V10" s="52">
+        <v>8.7993435806731171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24">
+        <v>254.11510362744374</v>
+      </c>
+      <c r="C11" s="24">
+        <v>230.48213745961908</v>
+      </c>
+      <c r="D11" s="24">
+        <v>221.29311839125992</v>
+      </c>
+      <c r="E11" s="24">
+        <v>220.9880752821243</v>
+      </c>
+      <c r="F11" s="24">
+        <v>215.94582433361123</v>
+      </c>
+      <c r="G11" s="24">
+        <v>216.07190867412245</v>
+      </c>
+      <c r="H11" s="24">
+        <v>202.76329173890042</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="24">
+        <v>1.0662818755093515</v>
+      </c>
+      <c r="T11" s="24">
+        <v>0.95989746534247544</v>
+      </c>
+      <c r="U11" s="38">
+        <v>1.445926629878161</v>
+      </c>
+      <c r="V11" s="52">
+        <v>1.2974196246648089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.23736124792487473</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.14050756160604963</v>
+      </c>
+      <c r="E12" s="24">
+        <v>8.0791089577900516E-2</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>3.9596258232163853E-2</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24">
+        <v>1.1389417119863007E-2</v>
+      </c>
+      <c r="U12" s="38">
+        <v>1.1668855876634524E-2</v>
+      </c>
+      <c r="V12" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="24">
+        <v>34.405621787041959</v>
+      </c>
+      <c r="C13" s="24">
+        <v>42.536760143662264</v>
+      </c>
+      <c r="D13" s="24">
+        <v>41.339752671289119</v>
+      </c>
+      <c r="E13" s="24">
+        <v>39.238518058189982</v>
+      </c>
+      <c r="F13" s="24">
+        <v>36.362177118310491</v>
+      </c>
+      <c r="G13" s="24">
+        <v>43.650527236218331</v>
+      </c>
+      <c r="H13" s="24">
+        <v>48.836100081076943</v>
+      </c>
+      <c r="I13" s="24">
+        <v>55.394586262735686</v>
+      </c>
+      <c r="J13" s="26">
+        <v>50.291257105766533</v>
+      </c>
+      <c r="K13" s="25">
+        <v>49.263885301408479</v>
+      </c>
+      <c r="L13" s="25">
+        <v>46.330486426082715</v>
+      </c>
+      <c r="M13" s="25">
+        <v>49.779756185934232</v>
+      </c>
+      <c r="N13" s="25">
+        <v>44.494220868399154</v>
+      </c>
+      <c r="O13" s="25">
+        <v>52.350135781498849</v>
+      </c>
+      <c r="P13" s="25">
+        <v>59.611020674956258</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>51.883350070297666</v>
+      </c>
+      <c r="R13" s="24">
+        <v>3.505658402003597</v>
+      </c>
+      <c r="S13" s="24">
+        <v>3.434334469749011</v>
+      </c>
+      <c r="T13" s="24">
+        <v>3.4639820806165758</v>
+      </c>
+      <c r="U13" s="38">
+        <v>3.12195641016263</v>
+      </c>
+      <c r="V13" s="52">
+        <v>2.0945974195070405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="24">
+        <v>165.56640549634349</v>
+      </c>
+      <c r="C14" s="24">
+        <v>179.92858824069435</v>
+      </c>
+      <c r="D14" s="24">
+        <v>178.6352834966404</v>
+      </c>
+      <c r="E14" s="24">
+        <v>184.2771187817813</v>
+      </c>
+      <c r="F14" s="24">
+        <v>193.38829057403328</v>
+      </c>
+      <c r="G14" s="24">
+        <v>179.78050426185285</v>
+      </c>
+      <c r="H14" s="24">
+        <v>176.65137513863849</v>
+      </c>
+      <c r="I14" s="24">
+        <v>281.13246542105014</v>
+      </c>
+      <c r="J14" s="26">
+        <v>271.76203972158004</v>
+      </c>
+      <c r="K14" s="25">
+        <v>265.16574919847875</v>
+      </c>
+      <c r="L14" s="25">
+        <v>259.5350221822498</v>
+      </c>
+      <c r="M14" s="25">
+        <v>251.90622774071238</v>
+      </c>
+      <c r="N14" s="25">
+        <v>246.94958966984808</v>
+      </c>
+      <c r="O14" s="25">
+        <v>237.54393089978345</v>
+      </c>
+      <c r="P14" s="25">
+        <v>241.59408906544229</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>239.22902984450965</v>
+      </c>
+      <c r="R14" s="24">
+        <v>16.935723869524082</v>
+      </c>
+      <c r="S14" s="24">
+        <v>15.111686442777778</v>
+      </c>
+      <c r="T14" s="24">
+        <v>14.021608171780052</v>
+      </c>
+      <c r="U14" s="38">
+        <v>13.192493965306399</v>
+      </c>
+      <c r="V14" s="52">
+        <v>13.030996452550884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25">
-        <v>379.38605017159762</v>
-      </c>
-      <c r="C8" s="25">
-        <v>360.23714692892361</v>
-      </c>
-      <c r="D8" s="25">
-        <v>355.72242491973623</v>
-      </c>
-      <c r="E8" s="25">
-        <v>344.39406997858816</v>
-      </c>
-      <c r="F8" s="25">
-        <v>332.51245818232326</v>
-      </c>
-      <c r="G8" s="25">
-        <v>339.58686718908325</v>
-      </c>
-      <c r="H8" s="25">
-        <v>337.91762486135326</v>
-      </c>
-      <c r="I8" s="25">
-        <v>224.77753457895398</v>
-      </c>
-      <c r="J8" s="24">
-        <v>223.04845951835733</v>
-      </c>
-      <c r="K8" s="26">
-        <v>220.87651052465151</v>
-      </c>
-      <c r="L8" s="26">
-        <v>218.07336100135626</v>
-      </c>
-      <c r="M8" s="26">
-        <v>221.57129595601077</v>
-      </c>
-      <c r="N8" s="26">
-        <v>216.84478739057818</v>
-      </c>
-      <c r="O8" s="26">
-        <v>217.66197240267752</v>
-      </c>
-      <c r="P8" s="26">
-        <v>216.8155243321832</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>216.70784419774625</v>
-      </c>
-      <c r="R8" s="25">
-        <v>10.195350802021027</v>
-      </c>
-      <c r="S8" s="25">
-        <v>10.751817533707882</v>
-      </c>
-      <c r="T8" s="25">
-        <v>11.537632014353777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25">
-        <v>344.98042838455638</v>
-      </c>
-      <c r="C9" s="25">
-        <v>317.70038678525833</v>
-      </c>
-      <c r="D9" s="25">
-        <v>314.3826722484481</v>
-      </c>
-      <c r="E9" s="25">
-        <v>305.15555192039733</v>
-      </c>
-      <c r="F9" s="25">
-        <v>296.15028106401081</v>
-      </c>
-      <c r="G9" s="25">
-        <v>295.93633995286893</v>
-      </c>
-      <c r="H9" s="25">
-        <v>289.08152478027762</v>
-      </c>
-      <c r="I9" s="25">
-        <v>169.38294831621829</v>
-      </c>
-      <c r="J9" s="27">
-        <v>172.7572024125908</v>
-      </c>
-      <c r="K9" s="26">
-        <v>171.61262522324304</v>
-      </c>
-      <c r="L9" s="26">
-        <v>171.74287457527356</v>
-      </c>
-      <c r="M9" s="26">
-        <v>171.79153977007655</v>
-      </c>
-      <c r="N9" s="26">
-        <v>172.35056652217904</v>
-      </c>
-      <c r="O9" s="26">
-        <v>165.31183662117868</v>
-      </c>
-      <c r="P9" s="26">
-        <v>157.20450365722695</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>164.82449412744859</v>
-      </c>
-      <c r="R9" s="25">
-        <v>6.6896924000174298</v>
-      </c>
-      <c r="S9" s="25">
-        <v>7.3174830639588535</v>
-      </c>
-      <c r="T9" s="25">
-        <v>8.0736499337372045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="25">
-        <v>90.627963509182592</v>
-      </c>
-      <c r="C10" s="25">
-        <v>87.21824932563726</v>
-      </c>
-      <c r="D10" s="25">
-        <v>92.9490462955808</v>
-      </c>
-      <c r="E10" s="25">
-        <v>84.086685548694732</v>
-      </c>
-      <c r="F10" s="25">
-        <v>80.204456730396402</v>
-      </c>
-      <c r="G10" s="25">
-        <v>79.824835020513248</v>
-      </c>
-      <c r="H10" s="25">
-        <v>86.318233041375748</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="25">
-        <v>6.2512011884494987</v>
-      </c>
-      <c r="T10" s="25">
-        <v>7.1023630512748657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="25">
-        <v>254.11510362744374</v>
-      </c>
-      <c r="C11" s="25">
-        <v>230.48213745961908</v>
-      </c>
-      <c r="D11" s="25">
-        <v>221.29311839125992</v>
-      </c>
-      <c r="E11" s="25">
-        <v>220.9880752821243</v>
-      </c>
-      <c r="F11" s="25">
-        <v>215.94582433361123</v>
-      </c>
-      <c r="G11" s="25">
-        <v>216.07190867412245</v>
-      </c>
-      <c r="H11" s="25">
-        <v>202.76329173890042</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="25">
-        <v>1.0662818755093515</v>
-      </c>
-      <c r="T11" s="25">
-        <v>0.95989746534247544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0.23736124792487473</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.14050756160604963</v>
-      </c>
-      <c r="E12" s="25">
-        <v>8.0791089577900516E-2</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <v>3.9596258232163853E-2</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="25">
-        <v>0</v>
-      </c>
-      <c r="T12" s="25">
-        <v>1.1389417119863007E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="25">
-        <v>34.405621787041959</v>
-      </c>
-      <c r="C13" s="25">
-        <v>42.536760143662264</v>
-      </c>
-      <c r="D13" s="25">
-        <v>41.339752671289119</v>
-      </c>
-      <c r="E13" s="25">
-        <v>39.238518058189982</v>
-      </c>
-      <c r="F13" s="25">
-        <v>36.362177118310491</v>
-      </c>
-      <c r="G13" s="25">
-        <v>43.650527236218331</v>
-      </c>
-      <c r="H13" s="25">
-        <v>48.836100081076943</v>
-      </c>
-      <c r="I13" s="25">
-        <v>55.394586262735686</v>
-      </c>
-      <c r="J13" s="27">
-        <v>50.291257105766533</v>
-      </c>
-      <c r="K13" s="26">
-        <v>49.263885301408479</v>
-      </c>
-      <c r="L13" s="26">
-        <v>46.330486426082715</v>
-      </c>
-      <c r="M13" s="26">
-        <v>49.779756185934232</v>
-      </c>
-      <c r="N13" s="26">
-        <v>44.494220868399154</v>
-      </c>
-      <c r="O13" s="26">
-        <v>52.350135781498849</v>
-      </c>
-      <c r="P13" s="26">
-        <v>59.611020674956258</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>51.883350070297666</v>
-      </c>
-      <c r="R13" s="25">
-        <v>3.505658402003597</v>
-      </c>
-      <c r="S13" s="25">
-        <v>3.434334469749011</v>
-      </c>
-      <c r="T13" s="25">
-        <v>3.4639820806165758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="25">
-        <v>165.56640549634349</v>
-      </c>
-      <c r="C14" s="25">
-        <v>179.92858824069435</v>
-      </c>
-      <c r="D14" s="25">
-        <v>178.6352834966404</v>
-      </c>
-      <c r="E14" s="25">
-        <v>184.2771187817813</v>
-      </c>
-      <c r="F14" s="25">
-        <v>193.38829057403328</v>
-      </c>
-      <c r="G14" s="25">
-        <v>179.78050426185285</v>
-      </c>
-      <c r="H14" s="25">
-        <v>176.65137513863849</v>
-      </c>
-      <c r="I14" s="25">
-        <v>281.13246542105014</v>
-      </c>
-      <c r="J14" s="27">
-        <v>271.76203972158004</v>
-      </c>
-      <c r="K14" s="26">
-        <v>265.16574919847875</v>
-      </c>
-      <c r="L14" s="26">
-        <v>259.5350221822498</v>
-      </c>
-      <c r="M14" s="26">
-        <v>251.90622774071238</v>
-      </c>
-      <c r="N14" s="26">
-        <v>246.94958966984808</v>
-      </c>
-      <c r="O14" s="26">
-        <v>237.54393089978345</v>
-      </c>
-      <c r="P14" s="26">
-        <v>241.59408906544229</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>239.22902984450965</v>
-      </c>
-      <c r="R14" s="25">
-        <v>16.935723869524082</v>
-      </c>
-      <c r="S14" s="25">
-        <v>15.111686442777778</v>
-      </c>
-      <c r="T14" s="25">
-        <v>14.021608171780052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="B15" s="27">
+        <v>9.0687630110490822</v>
+      </c>
+      <c r="C15" s="27">
+        <v>11.807988295014715</v>
+      </c>
+      <c r="D15" s="27">
+        <v>11.621351305197262</v>
+      </c>
+      <c r="E15" s="27">
+        <v>11.393494104189871</v>
+      </c>
+      <c r="F15" s="27">
+        <v>10.935583381472094</v>
+      </c>
+      <c r="G15" s="27">
+        <v>12.854009225248852</v>
+      </c>
+      <c r="H15" s="27">
+        <v>14.452072483971284</v>
+      </c>
+      <c r="I15" s="27">
+        <v>24.644182687784628</v>
+      </c>
+      <c r="J15" s="28">
+        <v>22.54723355380424</v>
+      </c>
+      <c r="K15" s="29">
+        <v>22.303813648808188</v>
+      </c>
+      <c r="L15" s="29">
+        <v>21.245367253176131</v>
+      </c>
+      <c r="M15" s="29">
+        <v>22.466699023964349</v>
+      </c>
+      <c r="N15" s="29">
+        <v>20.518925727394453</v>
+      </c>
+      <c r="O15" s="29">
+        <v>24.051117061757765</v>
+      </c>
+      <c r="P15" s="29">
+        <v>27.493889498256671</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>23.941611464213555</v>
+      </c>
+      <c r="R15" s="27">
+        <v>34.38487277268252</v>
+      </c>
+      <c r="S15" s="27">
+        <v>31.941896883778711</v>
+      </c>
+      <c r="T15" s="27">
+        <v>30.02333647239826</v>
+      </c>
+      <c r="U15" s="39">
+        <v>24.86095868164271</v>
+      </c>
+      <c r="V15" s="53">
+        <v>17.180997953898846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1">
+      <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28">
-        <v>9.0687630110490822</v>
-      </c>
-      <c r="C15" s="28">
-        <v>11.807988295014715</v>
-      </c>
-      <c r="D15" s="28">
-        <v>11.621351305197262</v>
-      </c>
-      <c r="E15" s="28">
-        <v>11.393494104189871</v>
-      </c>
-      <c r="F15" s="28">
-        <v>10.935583381472094</v>
-      </c>
-      <c r="G15" s="28">
-        <v>12.854009225248852</v>
-      </c>
-      <c r="H15" s="28">
-        <v>14.452072483971284</v>
-      </c>
-      <c r="I15" s="28">
-        <v>24.644182687784628</v>
-      </c>
-      <c r="J15" s="29">
-        <v>22.54723355380424</v>
-      </c>
-      <c r="K15" s="30">
-        <v>22.303813648808188</v>
-      </c>
-      <c r="L15" s="30">
-        <v>21.245367253176131</v>
-      </c>
-      <c r="M15" s="30">
-        <v>22.466699023964349</v>
-      </c>
-      <c r="N15" s="30">
-        <v>20.518925727394453</v>
-      </c>
-      <c r="O15" s="30">
-        <v>24.051117061757765</v>
-      </c>
-      <c r="P15" s="30">
-        <v>27.493889498256671</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>23.941611464213555</v>
-      </c>
-      <c r="R15" s="28">
-        <v>34.38487277268252</v>
-      </c>
-      <c r="S15" s="28">
-        <v>31.941896883778711</v>
-      </c>
-      <c r="T15" s="28">
-        <v>30.02333647239826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="27">
+        <v>69.618192601148394</v>
+      </c>
+      <c r="C16" s="27">
+        <v>66.690114436044183</v>
+      </c>
+      <c r="D16" s="27">
+        <v>66.570093275899055</v>
+      </c>
+      <c r="E16" s="27">
+        <v>65.143340000449555</v>
+      </c>
+      <c r="F16" s="27">
+        <v>63.227226614269419</v>
+      </c>
+      <c r="G16" s="27">
+        <v>65.384713375505356</v>
+      </c>
+      <c r="H16" s="27">
+        <v>65.670031591747602</v>
+      </c>
+      <c r="I16" s="27">
+        <v>44.430340293521013</v>
+      </c>
+      <c r="J16" s="28">
+        <v>45.077551883190623</v>
+      </c>
+      <c r="K16" s="29">
+        <v>45.443890136316931</v>
+      </c>
+      <c r="L16" s="29">
+        <v>45.659450017970634</v>
+      </c>
+      <c r="M16" s="29">
+        <v>46.796581646805684</v>
+      </c>
+      <c r="N16" s="29">
+        <v>46.754509781891159</v>
+      </c>
+      <c r="O16" s="29">
+        <v>47.816157660427422</v>
+      </c>
+      <c r="P16" s="29">
+        <v>47.297333649963612</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>47.530229848806201</v>
+      </c>
+      <c r="R16" s="27">
+        <v>37.578131074600748</v>
+      </c>
+      <c r="S16" s="27">
+        <v>41.571387788302211</v>
+      </c>
+      <c r="T16" s="27">
+        <v>45.140747261387958</v>
+      </c>
+      <c r="U16" s="39">
+        <v>48.767334033784138</v>
+      </c>
+      <c r="V16" s="53">
+        <v>48.335532588946087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28">
-        <v>69.618192601148394</v>
-      </c>
-      <c r="C16" s="28">
-        <v>66.690114436044183</v>
-      </c>
-      <c r="D16" s="28">
-        <v>66.570093275899055</v>
-      </c>
-      <c r="E16" s="28">
-        <v>65.143340000449555</v>
-      </c>
-      <c r="F16" s="28">
-        <v>63.227226614269419</v>
-      </c>
-      <c r="G16" s="28">
-        <v>65.384713375505356</v>
-      </c>
-      <c r="H16" s="28">
-        <v>65.670031591747602</v>
-      </c>
-      <c r="I16" s="28">
-        <v>44.430340293521013</v>
-      </c>
-      <c r="J16" s="29">
-        <v>45.077551883190623</v>
-      </c>
-      <c r="K16" s="30">
-        <v>45.443890136316931</v>
-      </c>
-      <c r="L16" s="30">
-        <v>45.659450017970634</v>
-      </c>
-      <c r="M16" s="30">
-        <v>46.796581646805684</v>
-      </c>
-      <c r="N16" s="30">
-        <v>46.754509781891159</v>
-      </c>
-      <c r="O16" s="30">
-        <v>47.816157660427422</v>
-      </c>
-      <c r="P16" s="30">
-        <v>47.297333649963612</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>47.530229848806201</v>
-      </c>
-      <c r="R16" s="28">
-        <v>37.578131074600748</v>
-      </c>
-      <c r="S16" s="28">
-        <v>41.571387788302211</v>
-      </c>
-      <c r="T16" s="28">
-        <v>45.140747261387958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>63.30468370157466</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <v>58.815353529503597</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>58.833748872109517</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <v>57.721237398225824</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <v>56.312960528073297</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="30">
         <v>56.980156286316152</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="30">
         <v>56.179351025861649</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="30">
         <v>33.48084606278131</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>34.913810979750352</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>35.308169565543679</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="32">
         <v>35.958932175872377</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>36.282934494714112</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="33">
         <v>37.160986645537541</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <v>36.315837607083374</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="33">
         <v>34.293457000620847</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <v>36.150726890357362</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="30">
         <v>24.656938514247404</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="30">
         <v>28.292697967806873</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="30">
         <v>31.58798882494656</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+      <c r="U17" s="40">
+        <v>36.643307269506394</v>
+      </c>
+      <c r="V17" s="54">
+        <v>40.031005723833204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="L18"/>
@@ -1581,85 +1704,92 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A19" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="1"/>
+    <row r="19" spans="1:26" s="45" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="43"/>
+      <c r="Z19" s="46"/>
+    </row>
+    <row r="20" spans="1:26" ht="60" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:26" s="50" customFormat="1" ht="45" customHeight="1">
+      <c r="A21" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-    </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="48"/>
+      <c r="Z21"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1669,7 +1799,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="3"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1679,7 +1809,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1">
+    <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1688,8 +1818,8 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1"/>
-    <row r="28" spans="1:23">
+    <row r="25" spans="1:26" ht="15" customHeight="1"/>
+    <row r="28" spans="1:26">
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -1701,7 +1831,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:26">
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -1714,12 +1844,6 @@
       <c r="P29"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A21:T21"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
